--- a/H_Index_Rosenheim_Demo.xlsx
+++ b/H_Index_Rosenheim_Demo.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brosenheim\Box\UDrive_brosenheim\My_Documents\PyCode\PubPy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beros\Box\UDrive_brosenheim\My_Documents\PyCode\PubPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EF0048-DC20-40E9-9A73-0270F7F7DDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1A5016-7178-4925-87B5-7F868080E74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-690" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{47CF98EE-F03B-422A-82DC-7319A007806E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{47CF98EE-F03B-422A-82DC-7319A007806E}"/>
   </bookViews>
   <sheets>
-    <sheet name="20140101" sheetId="1" r:id="rId1"/>
-    <sheet name="20150101" sheetId="2" r:id="rId2"/>
-    <sheet name="20150601" sheetId="3" r:id="rId3"/>
-    <sheet name="20150913" sheetId="4" r:id="rId4"/>
-    <sheet name="20160201" sheetId="5" r:id="rId5"/>
-    <sheet name="20170119" sheetId="6" r:id="rId6"/>
-    <sheet name="20180102" sheetId="7" r:id="rId7"/>
-    <sheet name="20190123" sheetId="8" r:id="rId8"/>
-    <sheet name="20200106" sheetId="9" r:id="rId9"/>
-    <sheet name="20210128" sheetId="10" r:id="rId10"/>
-    <sheet name="20220117" sheetId="11" r:id="rId11"/>
+    <sheet name="20130301" sheetId="12" r:id="rId1"/>
+    <sheet name="20140101" sheetId="1" r:id="rId2"/>
+    <sheet name="20150101" sheetId="2" r:id="rId3"/>
+    <sheet name="20150601" sheetId="3" r:id="rId4"/>
+    <sheet name="20150913" sheetId="4" r:id="rId5"/>
+    <sheet name="20160201" sheetId="5" r:id="rId6"/>
+    <sheet name="20170119" sheetId="6" r:id="rId7"/>
+    <sheet name="20180102" sheetId="7" r:id="rId8"/>
+    <sheet name="20190123" sheetId="8" r:id="rId9"/>
+    <sheet name="20200106" sheetId="9" r:id="rId10"/>
+    <sheet name="20210128" sheetId="10" r:id="rId11"/>
+    <sheet name="20220117" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="126">
   <si>
     <t>Year</t>
   </si>
@@ -777,6 +778,3259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71C2357-71A2-4AFE-8E02-7BBD3D36C976}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.796875" customWidth="1"/>
+    <col min="2" max="2" width="28.06640625" customWidth="1"/>
+    <col min="3" max="3" width="36.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD9F2E3-7602-4D54-B060-DCA2EAF4C23A}">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="29.86328125" customWidth="1"/>
+    <col min="3" max="3" width="29.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABD223B-7FE5-4349-A116-66DBCF02606F}">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="37.265625" customWidth="1"/>
+    <col min="3" max="3" width="29.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A77F924-D204-4732-BF1E-AF93396C5D24}">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection sqref="A1:D71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="22.59765625" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2005</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2010</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2013</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2005</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2007</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2014</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2014</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2014</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2014</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2015</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2016</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2013</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2014</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2016</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2018</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2006</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2016</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2001</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2009</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2020</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>2015</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>2017</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>2017</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>2017</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>2015</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>2018</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>2008</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>2014</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>2016</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>2008</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>2014</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>2013</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>2007</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>2007</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>2017</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>2019</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>2018</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>2020</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>2020</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>2018</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>2015</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>2012</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>2019</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>2005</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>2020</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>2021</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>2019</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>2019</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2509CACF-1D7B-4AA1-8302-D5336111908D}">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -784,13 +4038,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,7 +4058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -818,7 +4072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2002</v>
       </c>
@@ -832,7 +4086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2007</v>
       </c>
@@ -846,7 +4100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2010</v>
       </c>
@@ -860,7 +4114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -874,7 +4128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2008</v>
       </c>
@@ -888,7 +4142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2005</v>
       </c>
@@ -902,7 +4156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2010</v>
       </c>
@@ -916,7 +4170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -930,7 +4184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2006</v>
       </c>
@@ -944,7 +4198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2009</v>
       </c>
@@ -958,7 +4212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -972,7 +4226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -986,7 +4240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2001</v>
       </c>
@@ -1000,7 +4254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2007</v>
       </c>
@@ -1014,7 +4268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2008</v>
       </c>
@@ -1028,7 +4282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -1042,7 +4296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -1056,7 +4310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2005</v>
       </c>
@@ -1070,7 +4324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2013</v>
       </c>
@@ -1084,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2013</v>
       </c>
@@ -1098,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2007</v>
       </c>
@@ -1112,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2002</v>
       </c>
@@ -1126,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2001</v>
       </c>
@@ -1140,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2001</v>
       </c>
@@ -1154,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -1168,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2013</v>
       </c>
@@ -1182,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2013</v>
       </c>
@@ -1196,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -1215,1963 +4469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABD223B-7FE5-4349-A116-66DBCF02606F}">
-  <dimension ref="A1:D66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D66"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="1">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A77F924-D204-4732-BF1E-AF93396C5D24}">
-  <dimension ref="A1:D71"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection sqref="A1:D71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2014</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2010</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2014</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2019</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2014</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2011</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2004</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2012</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2013</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2002</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2016</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2005</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2010</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2013</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2005</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2007</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2014</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2014</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2014</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2014</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2015</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2018</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2016</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2013</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2014</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2016</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2016</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2018</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2006</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2013</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2016</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2001</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2009</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2020</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2015</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2017</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2017</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2017</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2015</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2018</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>2008</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2014</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>2016</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2008</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2014</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2018</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2013</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2020</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2007</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2007</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>2017</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>2020</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>2019</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>2018</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2021</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>2020</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>2020</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2018</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2015</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2012</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>2019</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>2005</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>2020</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2021</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>2019</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>2019</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02A5B46-7A4A-4844-8E53-C029802B1AF0}">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -3179,13 +4477,13 @@
       <selection sqref="A1:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.1328125" customWidth="1"/>
+    <col min="3" max="3" width="26.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3199,7 +4497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -3213,7 +4511,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -3227,7 +4525,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -3241,7 +4539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -3255,7 +4553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2007</v>
       </c>
@@ -3269,7 +4567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2008</v>
       </c>
@@ -3283,7 +4581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2005</v>
       </c>
@@ -3297,7 +4595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2011</v>
       </c>
@@ -3311,7 +4609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2010</v>
       </c>
@@ -3325,7 +4623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2006</v>
       </c>
@@ -3339,7 +4637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -3353,7 +4651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2013</v>
       </c>
@@ -3367,7 +4665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2009</v>
       </c>
@@ -3381,7 +4679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2008</v>
       </c>
@@ -3395,7 +4693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2001</v>
       </c>
@@ -3409,7 +4707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2014</v>
       </c>
@@ -3423,7 +4721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -3437,7 +4735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2014</v>
       </c>
@@ -3451,7 +4749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2007</v>
       </c>
@@ -3465,7 +4763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2013</v>
       </c>
@@ -3479,7 +4777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2013</v>
       </c>
@@ -3493,7 +4791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2008</v>
       </c>
@@ -3507,7 +4805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -3521,7 +4819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -3535,7 +4833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2005</v>
       </c>
@@ -3549,7 +4847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -3563,7 +4861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -3577,7 +4875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2007</v>
       </c>
@@ -3591,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2002</v>
       </c>
@@ -3605,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2001</v>
       </c>
@@ -3619,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2001</v>
       </c>
@@ -3633,7 +4931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2013</v>
       </c>
@@ -3647,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2014</v>
       </c>
@@ -3661,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2006</v>
       </c>
@@ -3675,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -3689,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2014</v>
       </c>
@@ -3703,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
@@ -3717,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -3731,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -3750,7 +5048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FBA80F-B89F-44B4-8789-D7E3C8406855}">
   <dimension ref="A1:D45"/>
   <sheetViews>
@@ -3758,13 +5056,13 @@
       <selection sqref="A1:D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.1328125" customWidth="1"/>
+    <col min="3" max="3" width="35.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3778,7 +5076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -3792,7 +5090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -3806,7 +5104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -3820,7 +5118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -3834,7 +5132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -3848,7 +5146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -3862,7 +5160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
@@ -3876,7 +5174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -3890,7 +5188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -3904,7 +5202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2013</v>
       </c>
@@ -3918,7 +5216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -3932,7 +5230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2014</v>
       </c>
@@ -3946,7 +5244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2006</v>
       </c>
@@ -3960,7 +5258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2009</v>
       </c>
@@ -3974,7 +5272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -3988,7 +5286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2008</v>
       </c>
@@ -4002,7 +5300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2001</v>
       </c>
@@ -4016,7 +5314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2013</v>
       </c>
@@ -4030,7 +5328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2013</v>
       </c>
@@ -4044,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -4058,7 +5356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2013</v>
       </c>
@@ -4072,7 +5370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2008</v>
       </c>
@@ -4086,7 +5384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -4100,7 +5398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -4114,7 +5412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -4128,7 +5426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -4142,7 +5440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2005</v>
       </c>
@@ -4156,7 +5454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2014</v>
       </c>
@@ -4170,7 +5468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -4184,7 +5482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2007</v>
       </c>
@@ -4198,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2002</v>
       </c>
@@ -4212,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2001</v>
       </c>
@@ -4226,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2001</v>
       </c>
@@ -4240,7 +5538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2006</v>
       </c>
@@ -4254,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -4268,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -4282,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
@@ -4296,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -4310,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -4324,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2014</v>
       </c>
@@ -4338,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -4352,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2015</v>
       </c>
@@ -4366,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2015</v>
       </c>
@@ -4380,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2015</v>
       </c>
@@ -4399,7 +5697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E542537-6253-4743-A932-4E9576373537}">
   <dimension ref="A1:D46"/>
   <sheetViews>
@@ -4407,13 +5705,13 @@
       <selection sqref="A1:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.73046875" customWidth="1"/>
+    <col min="3" max="3" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4427,7 +5725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -4441,7 +5739,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -4455,7 +5753,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -4469,7 +5767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -4483,7 +5781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -4497,7 +5795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -4511,7 +5809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
@@ -4525,7 +5823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -4539,7 +5837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -4553,7 +5851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2014</v>
       </c>
@@ -4567,7 +5865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -4581,7 +5879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2012</v>
       </c>
@@ -4595,7 +5893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2014</v>
       </c>
@@ -4609,7 +5907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2006</v>
       </c>
@@ -4623,7 +5921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2009</v>
       </c>
@@ -4637,7 +5935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2008</v>
       </c>
@@ -4651,7 +5949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -4665,7 +5963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2001</v>
       </c>
@@ -4679,7 +5977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2013</v>
       </c>
@@ -4693,7 +5991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -4707,7 +6005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2014</v>
       </c>
@@ -4721,7 +6019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2013</v>
       </c>
@@ -4735,7 +6033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2014</v>
       </c>
@@ -4749,7 +6047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2007</v>
       </c>
@@ -4763,7 +6061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2008</v>
       </c>
@@ -4777,7 +6075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -4791,7 +6089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -4805,7 +6103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2014</v>
       </c>
@@ -4819,7 +6117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -4833,7 +6131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2005</v>
       </c>
@@ -4847,7 +6145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
@@ -4861,7 +6159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2007</v>
       </c>
@@ -4875,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2002</v>
       </c>
@@ -4889,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2001</v>
       </c>
@@ -4903,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2001</v>
       </c>
@@ -4917,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2006</v>
       </c>
@@ -4931,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2013</v>
       </c>
@@ -4945,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -4959,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -4973,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2014</v>
       </c>
@@ -4987,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -5001,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2015</v>
       </c>
@@ -5015,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2015</v>
       </c>
@@ -5029,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2015</v>
       </c>
@@ -5043,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2015</v>
       </c>
@@ -5062,7 +6360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08657D8-BC03-4C93-ABAA-17CFDA533EAE}">
   <dimension ref="A1:D46"/>
   <sheetViews>
@@ -5070,13 +6368,13 @@
       <selection sqref="A1:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" customWidth="1"/>
+    <col min="3" max="3" width="29.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5090,7 +6388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -5104,7 +6402,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -5118,7 +6416,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -5132,7 +6430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -5146,7 +6444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -5160,7 +6458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
@@ -5174,7 +6472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -5188,7 +6486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -5202,7 +6500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
@@ -5216,7 +6514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2005</v>
       </c>
@@ -5230,7 +6528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -5244,7 +6542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2012</v>
       </c>
@@ -5258,7 +6556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2014</v>
       </c>
@@ -5272,7 +6570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2006</v>
       </c>
@@ -5286,7 +6584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -5300,7 +6598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2009</v>
       </c>
@@ -5314,7 +6612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -5328,7 +6626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2008</v>
       </c>
@@ -5342,7 +6640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2001</v>
       </c>
@@ -5356,7 +6654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -5370,7 +6668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2014</v>
       </c>
@@ -5384,7 +6682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2013</v>
       </c>
@@ -5398,7 +6696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2013</v>
       </c>
@@ -5412,7 +6710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -5426,7 +6724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -5440,7 +6738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -5454,7 +6752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2007</v>
       </c>
@@ -5468,7 +6766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2013</v>
       </c>
@@ -5482,7 +6780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2014</v>
       </c>
@@ -5496,7 +6794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2008</v>
       </c>
@@ -5510,7 +6808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2014</v>
       </c>
@@ -5524,7 +6822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2015</v>
       </c>
@@ -5538,7 +6836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2005</v>
       </c>
@@ -5552,7 +6850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2015</v>
       </c>
@@ -5566,7 +6864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2014</v>
       </c>
@@ -5580,7 +6878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -5594,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2007</v>
       </c>
@@ -5608,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2002</v>
       </c>
@@ -5622,7 +6920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2001</v>
       </c>
@@ -5636,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2001</v>
       </c>
@@ -5650,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2006</v>
       </c>
@@ -5664,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2012</v>
       </c>
@@ -5678,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2014</v>
       </c>
@@ -5692,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2015</v>
       </c>
@@ -5706,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2015</v>
       </c>
@@ -5725,7 +7023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A4CA61-FD48-4323-A1A5-65E1A883404B}">
   <dimension ref="A1:D52"/>
   <sheetViews>
@@ -5733,13 +7031,13 @@
       <selection sqref="A1:D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="29.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5753,7 +7051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
@@ -5767,7 +7065,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2004</v>
       </c>
@@ -5781,7 +7079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -5795,7 +7093,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -5809,7 +7107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
@@ -5823,7 +7121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2002</v>
       </c>
@@ -5837,7 +7135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -5851,7 +7149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
@@ -5865,7 +7163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2007</v>
       </c>
@@ -5879,7 +7177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
@@ -5893,7 +7191,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -5907,7 +7205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2010</v>
       </c>
@@ -5921,7 +7219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2005</v>
       </c>
@@ -5935,7 +7233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2012</v>
       </c>
@@ -5949,7 +7247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2006</v>
       </c>
@@ -5963,7 +7261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -5977,7 +7275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -5991,7 +7289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2009</v>
       </c>
@@ -6005,7 +7303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2001</v>
       </c>
@@ -6019,7 +7317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2014</v>
       </c>
@@ -6033,7 +7331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2008</v>
       </c>
@@ -6047,7 +7345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2013</v>
       </c>
@@ -6061,7 +7359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2013</v>
       </c>
@@ -6075,7 +7373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -6089,7 +7387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -6103,7 +7401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -6117,7 +7415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2007</v>
       </c>
@@ -6131,7 +7429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -6145,7 +7443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2014</v>
       </c>
@@ -6159,7 +7457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2008</v>
       </c>
@@ -6173,7 +7471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2007</v>
       </c>
@@ -6187,7 +7485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2013</v>
       </c>
@@ -6201,7 +7499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2015</v>
       </c>
@@ -6215,7 +7513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2016</v>
       </c>
@@ -6229,7 +7527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2014</v>
       </c>
@@ -6243,7 +7541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2016</v>
       </c>
@@ -6257,7 +7555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2015</v>
       </c>
@@ -6271,7 +7569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2005</v>
       </c>
@@ -6285,7 +7583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -6299,7 +7597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2007</v>
       </c>
@@ -6313,7 +7611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2002</v>
       </c>
@@ -6327,7 +7625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2001</v>
       </c>
@@ -6341,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2001</v>
       </c>
@@ -6355,7 +7653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2006</v>
       </c>
@@ -6369,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2012</v>
       </c>
@@ -6383,7 +7681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>2016</v>
       </c>
@@ -6397,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>2015</v>
       </c>
@@ -6411,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>2015</v>
       </c>
@@ -6425,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>2016</v>
       </c>
@@ -6439,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>2016</v>
       </c>
@@ -6453,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>2016</v>
       </c>
@@ -6472,7 +7770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3743E774-43F0-4D44-B824-4F43EE28DC17}">
   <dimension ref="A1:D55"/>
   <sheetViews>
@@ -6480,13 +7778,13 @@
       <selection sqref="A1:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.73046875" customWidth="1"/>
+    <col min="3" max="3" width="30.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6500,7 +7798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
@@ -6514,7 +7812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2004</v>
       </c>
@@ -6528,7 +7826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -6542,7 +7840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2008</v>
       </c>
@@ -6556,7 +7854,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
@@ -6570,7 +7868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2002</v>
       </c>
@@ -6584,7 +7882,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -6598,7 +7896,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -6612,7 +7910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -6626,7 +7924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2012</v>
       </c>
@@ -6640,7 +7938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -6654,7 +7952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2007</v>
       </c>
@@ -6668,7 +7966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -6682,7 +7980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2005</v>
       </c>
@@ -6696,7 +7994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2013</v>
       </c>
@@ -6710,7 +8008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2014</v>
       </c>
@@ -6724,7 +8022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -6738,7 +8036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2013</v>
       </c>
@@ -6752,7 +8050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -6766,7 +8064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -6780,7 +8078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2015</v>
       </c>
@@ -6794,7 +8092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2001</v>
       </c>
@@ -6808,7 +8106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2014</v>
       </c>
@@ -6822,7 +8120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -6836,7 +8134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -6850,7 +8148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -6864,7 +8162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -6878,7 +8176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2008</v>
       </c>
@@ -6892,7 +8190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2015</v>
       </c>
@@ -6906,7 +8204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2016</v>
       </c>
@@ -6920,7 +8218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -6934,7 +8232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2008</v>
       </c>
@@ -6948,7 +8246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2007</v>
       </c>
@@ -6962,7 +8260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2007</v>
       </c>
@@ -6976,7 +8274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -6990,7 +8288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -7004,7 +8302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2016</v>
       </c>
@@ -7018,7 +8316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
@@ -7032,7 +8330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -7046,7 +8344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2014</v>
       </c>
@@ -7060,7 +8358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2016</v>
       </c>
@@ -7074,7 +8372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2005</v>
       </c>
@@ -7088,7 +8386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2016</v>
       </c>
@@ -7102,7 +8400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2007</v>
       </c>
@@ -7116,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2002</v>
       </c>
@@ -7130,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>2001</v>
       </c>
@@ -7144,7 +8442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>2001</v>
       </c>
@@ -7158,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>2006</v>
       </c>
@@ -7172,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>2012</v>
       </c>
@@ -7186,7 +8484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>2016</v>
       </c>
@@ -7200,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>2017</v>
       </c>
@@ -7214,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>2015</v>
       </c>
@@ -7228,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>2017</v>
       </c>
@@ -7242,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>2017</v>
       </c>
@@ -7261,7 +8559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C63B752-4856-41FC-96CA-EBCD4CCB636B}">
   <dimension ref="A1:D65"/>
   <sheetViews>
@@ -7269,13 +8567,13 @@
       <selection sqref="A1:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7289,7 +8587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
@@ -7303,7 +8601,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -7317,7 +8615,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -7331,7 +8629,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2004</v>
       </c>
@@ -7345,7 +8643,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2008</v>
       </c>
@@ -7359,7 +8657,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
@@ -7373,7 +8671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -7387,7 +8685,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2002</v>
       </c>
@@ -7401,7 +8699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2012</v>
       </c>
@@ -7415,7 +8713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2005</v>
       </c>
@@ -7429,7 +8727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -7443,7 +8741,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2007</v>
       </c>
@@ -7457,7 +8755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2005</v>
       </c>
@@ -7471,7 +8769,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2010</v>
       </c>
@@ -7485,7 +8783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2015</v>
       </c>
@@ -7499,7 +8797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -7513,7 +8811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -7527,7 +8825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2016</v>
       </c>
@@ -7541,7 +8839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -7555,7 +8853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2013</v>
       </c>
@@ -7569,7 +8867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2006</v>
       </c>
@@ -7583,7 +8881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2014</v>
       </c>
@@ -7597,7 +8895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2014</v>
       </c>
@@ -7611,7 +8909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2014</v>
       </c>
@@ -7625,7 +8923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
@@ -7639,7 +8937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2013</v>
       </c>
@@ -7653,7 +8951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2001</v>
       </c>
@@ -7667,7 +8965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2014</v>
       </c>
@@ -7681,7 +8979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -7695,7 +8993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2015</v>
       </c>
@@ -7709,7 +9007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2008</v>
       </c>
@@ -7723,7 +9021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -7737,7 +9035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2016</v>
       </c>
@@ -7751,7 +9049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2008</v>
       </c>
@@ -7765,7 +9063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2007</v>
       </c>
@@ -7779,7 +9077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2007</v>
       </c>
@@ -7793,7 +9091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2015</v>
       </c>
@@ -7807,7 +9105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
@@ -7821,7 +9119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2013</v>
       </c>
@@ -7835,7 +9133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2016</v>
       </c>
@@ -7849,7 +9147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -7863,7 +9161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2014</v>
       </c>
@@ -7877,7 +9175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2015</v>
       </c>
@@ -7891,7 +9189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2012</v>
       </c>
@@ -7905,7 +9203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2018</v>
       </c>
@@ -7919,7 +9217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>2005</v>
       </c>
@@ -7933,7 +9231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>2016</v>
       </c>
@@ -7947,7 +9245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>2017</v>
       </c>
@@ -7961,7 +9259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>2017</v>
       </c>
@@ -7975,7 +9273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>2017</v>
       </c>
@@ -7989,7 +9287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>2007</v>
       </c>
@@ -8003,7 +9301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>2002</v>
       </c>
@@ -8017,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>2001</v>
       </c>
@@ -8031,7 +9329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>2001</v>
       </c>
@@ -8045,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>2006</v>
       </c>
@@ -8059,7 +9357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>2017</v>
       </c>
@@ -8073,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>2018</v>
       </c>
@@ -8087,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>2018</v>
       </c>
@@ -8101,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>2004</v>
       </c>
@@ -8115,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>2019</v>
       </c>
@@ -8129,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>2018</v>
       </c>
@@ -8143,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>2018</v>
       </c>
@@ -8157,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>2018</v>
       </c>
@@ -8171,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>2018</v>
       </c>
@@ -8184,1017 +9482,6 @@
       <c r="D65" s="1">
         <v>0</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD9F2E3-7602-4D54-B060-DCA2EAF4C23A}">
-  <dimension ref="A1:D71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="1">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D55" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/H_Index_Rosenheim_Demo.xlsx
+++ b/H_Index_Rosenheim_Demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beros\Box\UDrive_brosenheim\My_Documents\PyCode\PubPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1A5016-7178-4925-87B5-7F868080E74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E960B58A-35F4-4C94-AD86-F608956B9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{47CF98EE-F03B-422A-82DC-7319A007806E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="4" activeTab="12" xr2:uid="{47CF98EE-F03B-422A-82DC-7319A007806E}"/>
   </bookViews>
   <sheets>
     <sheet name="20130301" sheetId="12" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="20200106" sheetId="9" r:id="rId10"/>
     <sheet name="20210128" sheetId="10" r:id="rId11"/>
     <sheet name="20220117" sheetId="11" r:id="rId12"/>
+    <sheet name="20230101" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="133">
   <si>
     <t>Year</t>
   </si>
@@ -425,6 +426,27 @@
   </si>
   <si>
     <t>Engineered continental-scale rivers can drive changes in the carbon cycle</t>
+  </si>
+  <si>
+    <t>Proceedings of the National Academy of Science</t>
+  </si>
+  <si>
+    <t>Enhanced trace element mobilization by Earth’s ice sheets</t>
+  </si>
+  <si>
+    <t>History of the Larsen C Ice Shelf reconstructed from sub–ice shelf and offshore sediments</t>
+  </si>
+  <si>
+    <t>Quaternary Geochronology</t>
+  </si>
+  <si>
+    <t>New radiocarbon estimation method for carbonate-poor sediments: A case study of ramped pyrolysis 14C dating of postglacial deposits from the Alaskan margin, Arctic Ocean</t>
+  </si>
+  <si>
+    <t>A FRAMEWORK FOR TRANSDISCIPLINARY RADIOCARBON RESEARCH: USE OF NATURAL-LEVEL AND ELEVATED-LEVEL 14C IN ANTARCTIC FIELD RESEARCH</t>
+  </si>
+  <si>
+    <t>Mapping spatial and temporal variation of seafloor organic matter Δ14C and δ13C in the Northern Gulf of Mexico following the Deepwater Horizon Oil Spill</t>
   </si>
 </sst>
 </file>
@@ -781,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71C2357-71A2-4AFE-8E02-7BBD3D36C976}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
@@ -3021,7 +3043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A77F924-D204-4732-BF1E-AF93396C5D24}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D71"/>
     </sheetView>
   </sheetViews>
@@ -4027,6 +4049,1093 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74F38F3-5DA9-4E27-86E7-E677358DC002}">
+  <dimension ref="A1:D76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D76">
+    <sortCondition descending="1" ref="D2:D76"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/H_Index_Rosenheim_Demo.xlsx
+++ b/H_Index_Rosenheim_Demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beros\Box\UDrive_brosenheim\My_Documents\PyCode\PubPy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brosenheim\Box\UDrive_brosenheim\My_Documents\PyCode\PubPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E960B58A-35F4-4C94-AD86-F608956B9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E03CB8-7230-4B3D-AAF3-FAC84E60A54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="4" activeTab="12" xr2:uid="{47CF98EE-F03B-422A-82DC-7319A007806E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="4" activeTab="13" xr2:uid="{47CF98EE-F03B-422A-82DC-7319A007806E}"/>
   </bookViews>
   <sheets>
     <sheet name="20130301" sheetId="12" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="20210128" sheetId="10" r:id="rId11"/>
     <sheet name="20220117" sheetId="11" r:id="rId12"/>
     <sheet name="20230101" sheetId="13" r:id="rId13"/>
+    <sheet name="20240425" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="150">
   <si>
     <t>Year</t>
   </si>
@@ -447,6 +448,57 @@
   </si>
   <si>
     <t>Mapping spatial and temporal variation of seafloor organic matter Δ14C and δ13C in the Northern Gulf of Mexico following the Deepwater Horizon Oil Spill</t>
+  </si>
+  <si>
+    <t>ISME Communications</t>
+  </si>
+  <si>
+    <t>Biogeochemical and historical drivers of microbial community and structure in sediments from Mercer Subglacial Lake, West Antarctica</t>
+  </si>
+  <si>
+    <t>Estuaries and Coasts</t>
+  </si>
+  <si>
+    <t>A spatial model comparing above- and belowground blue carbon stocks in southwest Florida mangroves and marshes</t>
+  </si>
+  <si>
+    <t>Limnology and Oceanography: Methods</t>
+  </si>
+  <si>
+    <t>A method for successful collection of multicores and gravity cores from Antarctic subglacial lakes</t>
+  </si>
+  <si>
+    <t>Constraints on the timing and extent of deglacial grounding line retreat in West Antarctica</t>
+  </si>
+  <si>
+    <t>Oceanography</t>
+  </si>
+  <si>
+    <t>Know before you go</t>
+  </si>
+  <si>
+    <t>The life and death of a subglacial lake in West Antarctica</t>
+  </si>
+  <si>
+    <t>Science Advances</t>
+  </si>
+  <si>
+    <t>Global fjords as transitory reservoirs of labile organic carbon modulated by organo-mineral interactions</t>
+  </si>
+  <si>
+    <t>Quaternary Science Reviews</t>
+  </si>
+  <si>
+    <t>History of Anvers-Hugo Trough, western Antarctic Peninsula shelf, since the Last Glacial Maximum. Part II: Palaeo-productivity and palaeoceanographic changes during the Last Glacial Transition</t>
+  </si>
+  <si>
+    <t>Biogeosciences Discussions</t>
+  </si>
+  <si>
+    <t>Deep-sea stylasterid d18O and d13C maps inform sampling scheme for paleotemperature reconstructions</t>
+  </si>
+  <si>
+    <t>History of Anvers-Hugo Trough, western Antarctic Peninsula shelf, since the Last Glacial Maximum. Part I: Deglacial history based on new sedimentological and chronological data</t>
   </si>
 </sst>
 </file>
@@ -505,9 +557,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -545,7 +597,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -651,7 +703,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -793,7 +845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -807,14 +859,14 @@
       <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.796875" customWidth="1"/>
-    <col min="2" max="2" width="28.06640625" customWidth="1"/>
-    <col min="3" max="3" width="36.73046875" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -842,7 +894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2002</v>
       </c>
@@ -856,7 +908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2007</v>
       </c>
@@ -870,7 +922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -884,7 +936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2008</v>
       </c>
@@ -898,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2010</v>
       </c>
@@ -912,7 +964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
@@ -926,7 +978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -940,7 +992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -954,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -968,7 +1020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2007</v>
       </c>
@@ -982,7 +1034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -996,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2008</v>
       </c>
@@ -1010,7 +1062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2009</v>
       </c>
@@ -1024,7 +1076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2011</v>
       </c>
@@ -1038,7 +1090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2012</v>
       </c>
@@ -1052,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -1066,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2013</v>
       </c>
@@ -1093,13 +1145,13 @@
       <selection sqref="A1:D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.86328125" customWidth="1"/>
-    <col min="3" max="3" width="29.73046875" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
@@ -1127,7 +1179,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -1141,7 +1193,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -1155,7 +1207,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2008</v>
       </c>
@@ -1169,7 +1221,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -1183,7 +1235,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
@@ -1197,7 +1249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -1211,7 +1263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2012</v>
       </c>
@@ -1225,7 +1277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
@@ -1239,7 +1291,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2002</v>
       </c>
@@ -1253,7 +1305,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2005</v>
       </c>
@@ -1267,7 +1319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2010</v>
       </c>
@@ -1281,7 +1333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2007</v>
       </c>
@@ -1295,7 +1347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2005</v>
       </c>
@@ -1309,7 +1361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2015</v>
       </c>
@@ -1323,7 +1375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2016</v>
       </c>
@@ -1337,7 +1389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -1351,7 +1403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2016</v>
       </c>
@@ -1365,7 +1417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2014</v>
       </c>
@@ -1379,7 +1431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2014</v>
       </c>
@@ -1393,7 +1445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2013</v>
       </c>
@@ -1407,7 +1459,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2014</v>
       </c>
@@ -1421,7 +1473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2006</v>
       </c>
@@ -1435,7 +1487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2014</v>
       </c>
@@ -1449,7 +1501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2013</v>
       </c>
@@ -1463,7 +1515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2001</v>
       </c>
@@ -1477,7 +1529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2015</v>
       </c>
@@ -1491,7 +1543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -1505,7 +1557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2009</v>
       </c>
@@ -1519,7 +1571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -1533,7 +1585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -1547,7 +1599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -1561,7 +1613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2018</v>
       </c>
@@ -1575,7 +1627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2008</v>
       </c>
@@ -1589,7 +1641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2016</v>
       </c>
@@ -1603,7 +1655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -1617,7 +1669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2019</v>
       </c>
@@ -1631,7 +1683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2017</v>
       </c>
@@ -1645,7 +1697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2008</v>
       </c>
@@ -1659,7 +1711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2015</v>
       </c>
@@ -1673,7 +1725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2013</v>
       </c>
@@ -1687,7 +1739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2007</v>
       </c>
@@ -1701,7 +1753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2007</v>
       </c>
@@ -1715,7 +1767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2018</v>
       </c>
@@ -1729,7 +1781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2014</v>
       </c>
@@ -1743,7 +1795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2014</v>
       </c>
@@ -1757,7 +1809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2016</v>
       </c>
@@ -1771,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2017</v>
       </c>
@@ -1785,7 +1837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2015</v>
       </c>
@@ -1799,7 +1851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2012</v>
       </c>
@@ -1813,7 +1865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2017</v>
       </c>
@@ -1827,7 +1879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2017</v>
       </c>
@@ -1841,7 +1893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -1855,7 +1907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2018</v>
       </c>
@@ -1869,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2020</v>
       </c>
@@ -1883,7 +1935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2005</v>
       </c>
@@ -1897,7 +1949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2018</v>
       </c>
@@ -1911,7 +1963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2007</v>
       </c>
@@ -1925,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2002</v>
       </c>
@@ -1939,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2001</v>
       </c>
@@ -1953,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2001</v>
       </c>
@@ -1967,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2006</v>
       </c>
@@ -1981,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2004</v>
       </c>
@@ -1995,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2019</v>
       </c>
@@ -2009,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2019</v>
       </c>
@@ -2023,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2018</v>
       </c>
@@ -2037,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2018</v>
       </c>
@@ -2051,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2019</v>
       </c>
@@ -2065,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2019</v>
       </c>
@@ -2079,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2020</v>
       </c>
@@ -2104,13 +2156,13 @@
       <selection sqref="A1:D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.265625" customWidth="1"/>
-    <col min="3" max="3" width="29.73046875" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2124,7 +2176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
@@ -2138,7 +2190,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -2152,7 +2204,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -2166,7 +2218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2008</v>
       </c>
@@ -2180,7 +2232,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2011</v>
       </c>
@@ -2194,7 +2246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2004</v>
       </c>
@@ -2208,7 +2260,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -2222,7 +2274,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2012</v>
       </c>
@@ -2236,7 +2288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
@@ -2250,7 +2302,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2002</v>
       </c>
@@ -2264,7 +2316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2005</v>
       </c>
@@ -2278,7 +2330,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2016</v>
       </c>
@@ -2292,7 +2344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2019</v>
       </c>
@@ -2306,7 +2358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2015</v>
       </c>
@@ -2320,7 +2372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2016</v>
       </c>
@@ -2334,7 +2386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2018</v>
       </c>
@@ -2348,7 +2400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2005</v>
       </c>
@@ -2362,7 +2414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2010</v>
       </c>
@@ -2376,7 +2428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2013</v>
       </c>
@@ -2390,7 +2442,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -2404,7 +2456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2014</v>
       </c>
@@ -2418,7 +2470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2014</v>
       </c>
@@ -2432,7 +2484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2014</v>
       </c>
@@ -2446,7 +2498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2014</v>
       </c>
@@ -2460,7 +2512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2013</v>
       </c>
@@ -2474,7 +2526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -2488,7 +2540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2006</v>
       </c>
@@ -2502,7 +2554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2013</v>
       </c>
@@ -2516,7 +2568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2018</v>
       </c>
@@ -2530,7 +2582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2001</v>
       </c>
@@ -2544,7 +2596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2014</v>
       </c>
@@ -2558,7 +2610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -2572,7 +2624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2016</v>
       </c>
@@ -2586,7 +2638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2016</v>
       </c>
@@ -2600,7 +2652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2009</v>
       </c>
@@ -2614,7 +2666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2016</v>
       </c>
@@ -2628,7 +2680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2018</v>
       </c>
@@ -2642,7 +2694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
@@ -2656,7 +2708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2017</v>
       </c>
@@ -2670,7 +2722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2008</v>
       </c>
@@ -2684,7 +2736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2015</v>
       </c>
@@ -2698,7 +2750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2014</v>
       </c>
@@ -2712,7 +2764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2017</v>
       </c>
@@ -2726,7 +2778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2008</v>
       </c>
@@ -2740,7 +2792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2013</v>
       </c>
@@ -2754,7 +2806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2014</v>
       </c>
@@ -2768,7 +2820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2017</v>
       </c>
@@ -2782,7 +2834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2007</v>
       </c>
@@ -2796,7 +2848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2007</v>
       </c>
@@ -2810,7 +2862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2016</v>
       </c>
@@ -2824,7 +2876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2018</v>
       </c>
@@ -2838,7 +2890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2018</v>
       </c>
@@ -2852,7 +2904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2017</v>
       </c>
@@ -2866,7 +2918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2020</v>
       </c>
@@ -2880,7 +2932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2018</v>
       </c>
@@ -2894,7 +2946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2020</v>
       </c>
@@ -2908,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2015</v>
       </c>
@@ -2922,7 +2974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2012</v>
       </c>
@@ -2936,7 +2988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2018</v>
       </c>
@@ -2950,7 +3002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2020</v>
       </c>
@@ -2964,7 +3016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2005</v>
       </c>
@@ -2978,7 +3030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2019</v>
       </c>
@@ -2992,7 +3044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2019</v>
       </c>
@@ -3006,7 +3058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2019</v>
       </c>
@@ -3020,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2019</v>
       </c>
@@ -3047,13 +3099,13 @@
       <selection sqref="A1:D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.59765625" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3067,7 +3119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -3081,7 +3133,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -3095,7 +3147,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -3109,7 +3161,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -3123,7 +3175,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -3137,7 +3189,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -3151,7 +3203,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -3165,7 +3217,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -3179,7 +3231,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -3193,7 +3245,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -3207,7 +3259,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -3221,7 +3273,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -3235,7 +3287,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2016</v>
       </c>
@@ -3249,7 +3301,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -3263,7 +3315,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2005</v>
       </c>
@@ -3277,7 +3329,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -3291,7 +3343,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -3305,7 +3357,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2013</v>
       </c>
@@ -3319,7 +3371,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2005</v>
       </c>
@@ -3333,7 +3385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2007</v>
       </c>
@@ -3347,7 +3399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -3361,7 +3413,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2014</v>
       </c>
@@ -3375,7 +3427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2014</v>
       </c>
@@ -3389,7 +3441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2014</v>
       </c>
@@ -3403,7 +3455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -3417,7 +3469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -3431,7 +3483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -3445,7 +3497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2013</v>
       </c>
@@ -3459,7 +3511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2014</v>
       </c>
@@ -3473,7 +3525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -3487,7 +3539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2016</v>
       </c>
@@ -3501,7 +3553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -3515,7 +3567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2006</v>
       </c>
@@ -3529,7 +3581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2013</v>
       </c>
@@ -3543,7 +3595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2016</v>
       </c>
@@ -3557,7 +3609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2001</v>
       </c>
@@ -3571,7 +3623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2009</v>
       </c>
@@ -3585,7 +3637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -3599,7 +3651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -3613,7 +3665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2017</v>
       </c>
@@ -3627,7 +3679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -3641,7 +3693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2017</v>
       </c>
@@ -3655,7 +3707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2015</v>
       </c>
@@ -3669,7 +3721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -3683,7 +3735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2008</v>
       </c>
@@ -3697,7 +3749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2014</v>
       </c>
@@ -3711,7 +3763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2016</v>
       </c>
@@ -3725,7 +3777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2008</v>
       </c>
@@ -3739,7 +3791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2014</v>
       </c>
@@ -3753,7 +3805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -3767,7 +3819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2013</v>
       </c>
@@ -3781,7 +3833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -3795,7 +3847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2007</v>
       </c>
@@ -3809,7 +3861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2007</v>
       </c>
@@ -3823,7 +3875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2017</v>
       </c>
@@ -3837,7 +3889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -3851,7 +3903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -3865,7 +3917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3879,7 +3931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -3893,7 +3945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -3907,7 +3959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2020</v>
       </c>
@@ -3921,7 +3973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3935,7 +3987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2015</v>
       </c>
@@ -3949,7 +4001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2012</v>
       </c>
@@ -3963,7 +4015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2019</v>
       </c>
@@ -3977,7 +4029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2005</v>
       </c>
@@ -3991,7 +4043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -4005,7 +4057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2021</v>
       </c>
@@ -4019,7 +4071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2019</v>
       </c>
@@ -4033,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2019</v>
       </c>
@@ -4056,17 +4108,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74F38F3-5DA9-4E27-86E7-E677358DC002}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4080,7 +4132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
@@ -4094,7 +4146,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -4108,7 +4160,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -4122,7 +4174,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2008</v>
       </c>
@@ -4136,7 +4188,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2010</v>
       </c>
@@ -4150,7 +4202,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2018</v>
       </c>
@@ -4164,7 +4216,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -4178,7 +4230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
@@ -4192,7 +4244,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2012</v>
       </c>
@@ -4206,7 +4258,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2004</v>
       </c>
@@ -4220,7 +4272,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2015</v>
       </c>
@@ -4234,7 +4286,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2013</v>
       </c>
@@ -4248,7 +4300,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2016</v>
       </c>
@@ -4262,7 +4314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2016</v>
       </c>
@@ -4276,7 +4328,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2002</v>
       </c>
@@ -4290,7 +4342,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -4304,7 +4356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2005</v>
       </c>
@@ -4318,7 +4370,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2010</v>
       </c>
@@ -4332,7 +4384,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2005</v>
       </c>
@@ -4346,7 +4398,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2014</v>
       </c>
@@ -4360,7 +4412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2007</v>
       </c>
@@ -4374,7 +4426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2018</v>
       </c>
@@ -4388,7 +4440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2016</v>
       </c>
@@ -4402,7 +4454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2014</v>
       </c>
@@ -4416,7 +4468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -4430,7 +4482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -4444,7 +4496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2015</v>
       </c>
@@ -4458,7 +4510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -4472,7 +4524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2020</v>
       </c>
@@ -4486,7 +4538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -4500,7 +4552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -4514,7 +4566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2013</v>
       </c>
@@ -4528,7 +4580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2018</v>
       </c>
@@ -4542,7 +4594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2016</v>
       </c>
@@ -4556,7 +4608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2020</v>
       </c>
@@ -4570,7 +4622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
@@ -4584,7 +4636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2017</v>
       </c>
@@ -4598,7 +4650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2020</v>
       </c>
@@ -4612,7 +4664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2006</v>
       </c>
@@ -4626,7 +4678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2015</v>
       </c>
@@ -4640,7 +4692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2017</v>
       </c>
@@ -4654,7 +4706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2001</v>
       </c>
@@ -4668,7 +4720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2009</v>
       </c>
@@ -4682,7 +4734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2017</v>
       </c>
@@ -4696,7 +4748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2021</v>
       </c>
@@ -4710,7 +4762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2018</v>
       </c>
@@ -4724,7 +4776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2015</v>
       </c>
@@ -4738,7 +4790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2016</v>
       </c>
@@ -4752,7 +4804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2014</v>
       </c>
@@ -4766,7 +4818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2008</v>
       </c>
@@ -4780,7 +4832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2018</v>
       </c>
@@ -4794,7 +4846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2019</v>
       </c>
@@ -4808,7 +4860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -4822,7 +4874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2008</v>
       </c>
@@ -4836,7 +4888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2014</v>
       </c>
@@ -4850,7 +4902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2013</v>
       </c>
@@ -4864,7 +4916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2020</v>
       </c>
@@ -4878,7 +4930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2020</v>
       </c>
@@ -4892,7 +4944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2007</v>
       </c>
@@ -4906,7 +4958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2007</v>
       </c>
@@ -4920,7 +4972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2017</v>
       </c>
@@ -4934,7 +4986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2020</v>
       </c>
@@ -4948,7 +5000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2021</v>
       </c>
@@ -4962,7 +5014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2019</v>
       </c>
@@ -4976,7 +5028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2018</v>
       </c>
@@ -4990,7 +5042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2021</v>
       </c>
@@ -5004,7 +5056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2015</v>
       </c>
@@ -5018,7 +5070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2012</v>
       </c>
@@ -5032,7 +5084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2005</v>
       </c>
@@ -5046,7 +5098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2020</v>
       </c>
@@ -5060,7 +5112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2019</v>
       </c>
@@ -5074,7 +5126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2021</v>
       </c>
@@ -5088,7 +5140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2021</v>
       </c>
@@ -5102,7 +5154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2021</v>
       </c>
@@ -5116,7 +5168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2019</v>
       </c>
@@ -5133,6 +5185,1233 @@
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D76">
     <sortCondition descending="1" ref="D2:D76"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353BB113-D997-4658-9AA9-1D2D22C7AF6B}">
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:D71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
+    <sortCondition descending="1" ref="D2:D86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5147,13 +6426,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5167,7 +6446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -5181,7 +6460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2002</v>
       </c>
@@ -5195,7 +6474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2007</v>
       </c>
@@ -5209,7 +6488,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2010</v>
       </c>
@@ -5223,7 +6502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -5237,7 +6516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2008</v>
       </c>
@@ -5251,7 +6530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2005</v>
       </c>
@@ -5265,7 +6544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2010</v>
       </c>
@@ -5279,7 +6558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -5293,7 +6572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2006</v>
       </c>
@@ -5307,7 +6586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2009</v>
       </c>
@@ -5321,7 +6600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -5335,7 +6614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -5349,7 +6628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2001</v>
       </c>
@@ -5363,7 +6642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2007</v>
       </c>
@@ -5377,7 +6656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2008</v>
       </c>
@@ -5391,7 +6670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -5405,7 +6684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -5419,7 +6698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2005</v>
       </c>
@@ -5433,7 +6712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2013</v>
       </c>
@@ -5447,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2013</v>
       </c>
@@ -5461,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2007</v>
       </c>
@@ -5475,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2002</v>
       </c>
@@ -5489,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2001</v>
       </c>
@@ -5503,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2001</v>
       </c>
@@ -5517,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -5531,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2013</v>
       </c>
@@ -5545,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2013</v>
       </c>
@@ -5559,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -5586,13 +6865,13 @@
       <selection sqref="A1:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.1328125" customWidth="1"/>
-    <col min="3" max="3" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5606,7 +6885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -5620,7 +6899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -5634,7 +6913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -5648,7 +6927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -5662,7 +6941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2007</v>
       </c>
@@ -5676,7 +6955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2008</v>
       </c>
@@ -5690,7 +6969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2005</v>
       </c>
@@ -5704,7 +6983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2011</v>
       </c>
@@ -5718,7 +6997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2010</v>
       </c>
@@ -5732,7 +7011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2006</v>
       </c>
@@ -5746,7 +7025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -5760,7 +7039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2013</v>
       </c>
@@ -5774,7 +7053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2009</v>
       </c>
@@ -5788,7 +7067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2008</v>
       </c>
@@ -5802,7 +7081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2001</v>
       </c>
@@ -5816,7 +7095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2014</v>
       </c>
@@ -5830,7 +7109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -5844,7 +7123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2014</v>
       </c>
@@ -5858,7 +7137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2007</v>
       </c>
@@ -5872,7 +7151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2013</v>
       </c>
@@ -5886,7 +7165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2013</v>
       </c>
@@ -5900,7 +7179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2008</v>
       </c>
@@ -5914,7 +7193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -5928,7 +7207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -5942,7 +7221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2005</v>
       </c>
@@ -5956,7 +7235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -5970,7 +7249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -5984,7 +7263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2007</v>
       </c>
@@ -5998,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2002</v>
       </c>
@@ -6012,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2001</v>
       </c>
@@ -6026,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2001</v>
       </c>
@@ -6040,7 +7319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2013</v>
       </c>
@@ -6054,7 +7333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2014</v>
       </c>
@@ -6068,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2006</v>
       </c>
@@ -6082,7 +7361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -6096,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2014</v>
       </c>
@@ -6110,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
@@ -6124,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -6138,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -6165,13 +7444,13 @@
       <selection sqref="A1:D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.1328125" customWidth="1"/>
-    <col min="3" max="3" width="35.1328125" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6185,7 +7464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -6199,7 +7478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -6213,7 +7492,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -6227,7 +7506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -6241,7 +7520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -6255,7 +7534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -6269,7 +7548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
@@ -6283,7 +7562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -6297,7 +7576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -6311,7 +7590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2013</v>
       </c>
@@ -6325,7 +7604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -6339,7 +7618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2014</v>
       </c>
@@ -6353,7 +7632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2006</v>
       </c>
@@ -6367,7 +7646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2009</v>
       </c>
@@ -6381,7 +7660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -6395,7 +7674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2008</v>
       </c>
@@ -6409,7 +7688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2001</v>
       </c>
@@ -6423,7 +7702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2013</v>
       </c>
@@ -6437,7 +7716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2013</v>
       </c>
@@ -6451,7 +7730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -6465,7 +7744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2013</v>
       </c>
@@ -6479,7 +7758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2008</v>
       </c>
@@ -6493,7 +7772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -6507,7 +7786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -6521,7 +7800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -6535,7 +7814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -6549,7 +7828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2005</v>
       </c>
@@ -6563,7 +7842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2014</v>
       </c>
@@ -6577,7 +7856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -6591,7 +7870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2007</v>
       </c>
@@ -6605,7 +7884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2002</v>
       </c>
@@ -6619,7 +7898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2001</v>
       </c>
@@ -6633,7 +7912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2001</v>
       </c>
@@ -6647,7 +7926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2006</v>
       </c>
@@ -6661,7 +7940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -6675,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -6689,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
@@ -6703,7 +7982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -6717,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -6731,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2014</v>
       </c>
@@ -6745,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -6759,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2015</v>
       </c>
@@ -6773,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2015</v>
       </c>
@@ -6787,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2015</v>
       </c>
@@ -6814,13 +8093,13 @@
       <selection sqref="A1:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.73046875" customWidth="1"/>
-    <col min="3" max="3" width="34.86328125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6834,7 +8113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -6848,7 +8127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -6862,7 +8141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -6876,7 +8155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -6890,7 +8169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -6904,7 +8183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -6918,7 +8197,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
@@ -6932,7 +8211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -6946,7 +8225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -6960,7 +8239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2014</v>
       </c>
@@ -6974,7 +8253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -6988,7 +8267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2012</v>
       </c>
@@ -7002,7 +8281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2014</v>
       </c>
@@ -7016,7 +8295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2006</v>
       </c>
@@ -7030,7 +8309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2009</v>
       </c>
@@ -7044,7 +8323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2008</v>
       </c>
@@ -7058,7 +8337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -7072,7 +8351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2001</v>
       </c>
@@ -7086,7 +8365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2013</v>
       </c>
@@ -7100,7 +8379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -7114,7 +8393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2014</v>
       </c>
@@ -7128,7 +8407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2013</v>
       </c>
@@ -7142,7 +8421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2014</v>
       </c>
@@ -7156,7 +8435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2007</v>
       </c>
@@ -7170,7 +8449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2008</v>
       </c>
@@ -7184,7 +8463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -7198,7 +8477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -7212,7 +8491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2014</v>
       </c>
@@ -7226,7 +8505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -7240,7 +8519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2005</v>
       </c>
@@ -7254,7 +8533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
@@ -7268,7 +8547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2007</v>
       </c>
@@ -7282,7 +8561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2002</v>
       </c>
@@ -7296,7 +8575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2001</v>
       </c>
@@ -7310,7 +8589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2001</v>
       </c>
@@ -7324,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2006</v>
       </c>
@@ -7338,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2013</v>
       </c>
@@ -7352,7 +8631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -7366,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -7380,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2014</v>
       </c>
@@ -7394,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -7408,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2015</v>
       </c>
@@ -7422,7 +8701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2015</v>
       </c>
@@ -7436,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2015</v>
       </c>
@@ -7450,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2015</v>
       </c>
@@ -7477,13 +8756,13 @@
       <selection sqref="A1:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.265625" customWidth="1"/>
-    <col min="3" max="3" width="29.73046875" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7497,7 +8776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -7511,7 +8790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -7525,7 +8804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -7539,7 +8818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -7553,7 +8832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -7567,7 +8846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
@@ -7581,7 +8860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -7595,7 +8874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -7609,7 +8888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
@@ -7623,7 +8902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2005</v>
       </c>
@@ -7637,7 +8916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -7651,7 +8930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2012</v>
       </c>
@@ -7665,7 +8944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2014</v>
       </c>
@@ -7679,7 +8958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2006</v>
       </c>
@@ -7693,7 +8972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -7707,7 +8986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2009</v>
       </c>
@@ -7721,7 +9000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -7735,7 +9014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2008</v>
       </c>
@@ -7749,7 +9028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2001</v>
       </c>
@@ -7763,7 +9042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -7777,7 +9056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2014</v>
       </c>
@@ -7791,7 +9070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2013</v>
       </c>
@@ -7805,7 +9084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2013</v>
       </c>
@@ -7819,7 +9098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -7833,7 +9112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -7847,7 +9126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -7861,7 +9140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2007</v>
       </c>
@@ -7875,7 +9154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2013</v>
       </c>
@@ -7889,7 +9168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2014</v>
       </c>
@@ -7903,7 +9182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2008</v>
       </c>
@@ -7917,7 +9196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2014</v>
       </c>
@@ -7931,7 +9210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2015</v>
       </c>
@@ -7945,7 +9224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2005</v>
       </c>
@@ -7959,7 +9238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2015</v>
       </c>
@@ -7973,7 +9252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2014</v>
       </c>
@@ -7987,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -8001,7 +9280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2007</v>
       </c>
@@ -8015,7 +9294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2002</v>
       </c>
@@ -8029,7 +9308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2001</v>
       </c>
@@ -8043,7 +9322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2001</v>
       </c>
@@ -8057,7 +9336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2006</v>
       </c>
@@ -8071,7 +9350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2012</v>
       </c>
@@ -8085,7 +9364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2014</v>
       </c>
@@ -8099,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2015</v>
       </c>
@@ -8113,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2015</v>
       </c>
@@ -8140,13 +9419,13 @@
       <selection sqref="A1:D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.59765625" customWidth="1"/>
-    <col min="3" max="3" width="29.265625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8160,7 +9439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
@@ -8174,7 +9453,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2004</v>
       </c>
@@ -8188,7 +9467,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -8202,7 +9481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -8216,7 +9495,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
@@ -8230,7 +9509,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2002</v>
       </c>
@@ -8244,7 +9523,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -8258,7 +9537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
@@ -8272,7 +9551,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2007</v>
       </c>
@@ -8286,7 +9565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
@@ -8300,7 +9579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -8314,7 +9593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2010</v>
       </c>
@@ -8328,7 +9607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2005</v>
       </c>
@@ -8342,7 +9621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2012</v>
       </c>
@@ -8356,7 +9635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2006</v>
       </c>
@@ -8370,7 +9649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -8384,7 +9663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -8398,7 +9677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2009</v>
       </c>
@@ -8412,7 +9691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2001</v>
       </c>
@@ -8426,7 +9705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2014</v>
       </c>
@@ -8440,7 +9719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2008</v>
       </c>
@@ -8454,7 +9733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2013</v>
       </c>
@@ -8468,7 +9747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2013</v>
       </c>
@@ -8482,7 +9761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -8496,7 +9775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -8510,7 +9789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -8524,7 +9803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2007</v>
       </c>
@@ -8538,7 +9817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -8552,7 +9831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2014</v>
       </c>
@@ -8566,7 +9845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2008</v>
       </c>
@@ -8580,7 +9859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2007</v>
       </c>
@@ -8594,7 +9873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2013</v>
       </c>
@@ -8608,7 +9887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2015</v>
       </c>
@@ -8622,7 +9901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2016</v>
       </c>
@@ -8636,7 +9915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2014</v>
       </c>
@@ -8650,7 +9929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2016</v>
       </c>
@@ -8664,7 +9943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2015</v>
       </c>
@@ -8678,7 +9957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2005</v>
       </c>
@@ -8692,7 +9971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -8706,7 +9985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2007</v>
       </c>
@@ -8720,7 +9999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2002</v>
       </c>
@@ -8734,7 +10013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2001</v>
       </c>
@@ -8748,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2001</v>
       </c>
@@ -8762,7 +10041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2006</v>
       </c>
@@ -8776,7 +10055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2012</v>
       </c>
@@ -8790,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2016</v>
       </c>
@@ -8804,7 +10083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2015</v>
       </c>
@@ -8818,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2015</v>
       </c>
@@ -8832,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2016</v>
       </c>
@@ -8846,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2016</v>
       </c>
@@ -8860,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2016</v>
       </c>
@@ -8887,13 +10166,13 @@
       <selection sqref="A1:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.73046875" customWidth="1"/>
-    <col min="3" max="3" width="30.1328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8907,7 +10186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
@@ -8921,7 +10200,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2004</v>
       </c>
@@ -8935,7 +10214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -8949,7 +10228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2008</v>
       </c>
@@ -8963,7 +10242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
@@ -8977,7 +10256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2002</v>
       </c>
@@ -8991,7 +10270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -9005,7 +10284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -9019,7 +10298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -9033,7 +10312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2012</v>
       </c>
@@ -9047,7 +10326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -9061,7 +10340,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2007</v>
       </c>
@@ -9075,7 +10354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -9089,7 +10368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2005</v>
       </c>
@@ -9103,7 +10382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2013</v>
       </c>
@@ -9117,7 +10396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2014</v>
       </c>
@@ -9131,7 +10410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -9145,7 +10424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2013</v>
       </c>
@@ -9159,7 +10438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -9173,7 +10452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -9187,7 +10466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2015</v>
       </c>
@@ -9201,7 +10480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2001</v>
       </c>
@@ -9215,7 +10494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2014</v>
       </c>
@@ -9229,7 +10508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -9243,7 +10522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -9257,7 +10536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -9271,7 +10550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -9285,7 +10564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2008</v>
       </c>
@@ -9299,7 +10578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2015</v>
       </c>
@@ -9313,7 +10592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2016</v>
       </c>
@@ -9327,7 +10606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -9341,7 +10620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2008</v>
       </c>
@@ -9355,7 +10634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2007</v>
       </c>
@@ -9369,7 +10648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2007</v>
       </c>
@@ -9383,7 +10662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -9397,7 +10676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -9411,7 +10690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2016</v>
       </c>
@@ -9425,7 +10704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
@@ -9439,7 +10718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -9453,7 +10732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2014</v>
       </c>
@@ -9467,7 +10746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2016</v>
       </c>
@@ -9481,7 +10760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2005</v>
       </c>
@@ -9495,7 +10774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2016</v>
       </c>
@@ -9509,7 +10788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2007</v>
       </c>
@@ -9523,7 +10802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2002</v>
       </c>
@@ -9537,7 +10816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2001</v>
       </c>
@@ -9551,7 +10830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2001</v>
       </c>
@@ -9565,7 +10844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2006</v>
       </c>
@@ -9579,7 +10858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2012</v>
       </c>
@@ -9593,7 +10872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2016</v>
       </c>
@@ -9607,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2017</v>
       </c>
@@ -9621,7 +10900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2015</v>
       </c>
@@ -9635,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2017</v>
       </c>
@@ -9649,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2017</v>
       </c>
@@ -9676,13 +10955,13 @@
       <selection sqref="A1:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="30.86328125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9696,7 +10975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
@@ -9710,7 +10989,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -9724,7 +11003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -9738,7 +11017,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2004</v>
       </c>
@@ -9752,7 +11031,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2008</v>
       </c>
@@ -9766,7 +11045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
@@ -9780,7 +11059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -9794,7 +11073,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2002</v>
       </c>
@@ -9808,7 +11087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2012</v>
       </c>
@@ -9822,7 +11101,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2005</v>
       </c>
@@ -9836,7 +11115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -9850,7 +11129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2007</v>
       </c>
@@ -9864,7 +11143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2005</v>
       </c>
@@ -9878,7 +11157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2010</v>
       </c>
@@ -9892,7 +11171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2015</v>
       </c>
@@ -9906,7 +11185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -9920,7 +11199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -9934,7 +11213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2016</v>
       </c>
@@ -9948,7 +11227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -9962,7 +11241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2013</v>
       </c>
@@ -9976,7 +11255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2006</v>
       </c>
@@ -9990,7 +11269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2014</v>
       </c>
@@ -10004,7 +11283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2014</v>
       </c>
@@ -10018,7 +11297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2014</v>
       </c>
@@ -10032,7 +11311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
@@ -10046,7 +11325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2013</v>
       </c>
@@ -10060,7 +11339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2001</v>
       </c>
@@ -10074,7 +11353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2014</v>
       </c>
@@ -10088,7 +11367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -10102,7 +11381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2015</v>
       </c>
@@ -10116,7 +11395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2008</v>
       </c>
@@ -10130,7 +11409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -10144,7 +11423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2016</v>
       </c>
@@ -10158,7 +11437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2008</v>
       </c>
@@ -10172,7 +11451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2007</v>
       </c>
@@ -10186,7 +11465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2007</v>
       </c>
@@ -10200,7 +11479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2015</v>
       </c>
@@ -10214,7 +11493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
@@ -10228,7 +11507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2013</v>
       </c>
@@ -10242,7 +11521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2016</v>
       </c>
@@ -10256,7 +11535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -10270,7 +11549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2014</v>
       </c>
@@ -10284,7 +11563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2015</v>
       </c>
@@ -10298,7 +11577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2012</v>
       </c>
@@ -10312,7 +11591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2018</v>
       </c>
@@ -10326,7 +11605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2005</v>
       </c>
@@ -10340,7 +11619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2016</v>
       </c>
@@ -10354,7 +11633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2017</v>
       </c>
@@ -10368,7 +11647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2017</v>
       </c>
@@ -10382,7 +11661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2017</v>
       </c>
@@ -10396,7 +11675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2007</v>
       </c>
@@ -10410,7 +11689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2002</v>
       </c>
@@ -10424,7 +11703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2001</v>
       </c>
@@ -10438,7 +11717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2001</v>
       </c>
@@ -10452,7 +11731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2006</v>
       </c>
@@ -10466,7 +11745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2017</v>
       </c>
@@ -10480,7 +11759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2018</v>
       </c>
@@ -10494,7 +11773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2018</v>
       </c>
@@ -10508,7 +11787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2004</v>
       </c>
@@ -10522,7 +11801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2019</v>
       </c>
@@ -10536,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2018</v>
       </c>
@@ -10550,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2018</v>
       </c>
@@ -10564,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2018</v>
       </c>
@@ -10578,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2018</v>
       </c>

--- a/H_Index_Rosenheim_Demo.xlsx
+++ b/H_Index_Rosenheim_Demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brosenheim\Box\UDrive_brosenheim\My_Documents\PyCode\PubPy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beros\Box\UDrive_brosenheim\My_Documents\PyCode\PubPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E03CB8-7230-4B3D-AAF3-FAC84E60A54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B13E2D-30D6-4B71-8826-9119F458E315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="4" activeTab="13" xr2:uid="{47CF98EE-F03B-422A-82DC-7319A007806E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="8" activeTab="14" xr2:uid="{47CF98EE-F03B-422A-82DC-7319A007806E}"/>
   </bookViews>
   <sheets>
     <sheet name="20130301" sheetId="12" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="20220117" sheetId="11" r:id="rId12"/>
     <sheet name="20230101" sheetId="13" r:id="rId13"/>
     <sheet name="20240425" sheetId="14" r:id="rId14"/>
+    <sheet name="20250102" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="153">
   <si>
     <t>Year</t>
   </si>
@@ -499,6 +500,15 @@
   </si>
   <si>
     <t>History of Anvers-Hugo Trough, western Antarctic Peninsula shelf, since the Last Glacial Maximum. Part I: Deglacial history based on new sedimentological and chronological data</t>
+  </si>
+  <si>
+    <t>Deep-sea stylasterid δ18O and δ13C maps inform sampling scheme for paleotemperature reconstructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biogeosciences  </t>
+  </si>
+  <si>
+    <t>Radiocarbon age-offset measurements reveal shifts in the transport mechanism and age of permafrost-derived organic carbon from Burial Lake, arctic Alaska from MIS 3 to present</t>
   </si>
 </sst>
 </file>
@@ -859,14 +869,14 @@
       <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.86328125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,7 +890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -894,7 +904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2002</v>
       </c>
@@ -908,7 +918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2007</v>
       </c>
@@ -922,7 +932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -936,7 +946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2008</v>
       </c>
@@ -950,7 +960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2010</v>
       </c>
@@ -964,7 +974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
@@ -978,7 +988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -992,7 +1002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -1006,7 +1016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -1020,7 +1030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2007</v>
       </c>
@@ -1034,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -1048,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2008</v>
       </c>
@@ -1062,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2009</v>
       </c>
@@ -1076,7 +1086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2011</v>
       </c>
@@ -1090,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2012</v>
       </c>
@@ -1104,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -1118,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2013</v>
       </c>
@@ -1145,13 +1155,13 @@
       <selection sqref="A1:D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.86328125" customWidth="1"/>
+    <col min="3" max="3" width="29.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
@@ -1179,7 +1189,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -1193,7 +1203,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -1207,7 +1217,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2008</v>
       </c>
@@ -1221,7 +1231,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -1235,7 +1245,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
@@ -1249,7 +1259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -1263,7 +1273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2012</v>
       </c>
@@ -1277,7 +1287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
@@ -1291,7 +1301,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2002</v>
       </c>
@@ -1305,7 +1315,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2005</v>
       </c>
@@ -1319,7 +1329,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2010</v>
       </c>
@@ -1333,7 +1343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2007</v>
       </c>
@@ -1347,7 +1357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2005</v>
       </c>
@@ -1361,7 +1371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2015</v>
       </c>
@@ -1375,7 +1385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2016</v>
       </c>
@@ -1389,7 +1399,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -1403,7 +1413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2016</v>
       </c>
@@ -1417,7 +1427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2014</v>
       </c>
@@ -1431,7 +1441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2014</v>
       </c>
@@ -1445,7 +1455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2013</v>
       </c>
@@ -1459,7 +1469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2014</v>
       </c>
@@ -1473,7 +1483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2006</v>
       </c>
@@ -1487,7 +1497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2014</v>
       </c>
@@ -1501,7 +1511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2013</v>
       </c>
@@ -1515,7 +1525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2001</v>
       </c>
@@ -1529,7 +1539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2015</v>
       </c>
@@ -1543,7 +1553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -1557,7 +1567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2009</v>
       </c>
@@ -1571,7 +1581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -1585,7 +1595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -1599,7 +1609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -1613,7 +1623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2018</v>
       </c>
@@ -1627,7 +1637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2008</v>
       </c>
@@ -1641,7 +1651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2016</v>
       </c>
@@ -1655,7 +1665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -1669,7 +1679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2019</v>
       </c>
@@ -1683,7 +1693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2017</v>
       </c>
@@ -1697,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2008</v>
       </c>
@@ -1711,7 +1721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2015</v>
       </c>
@@ -1725,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2013</v>
       </c>
@@ -1739,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2007</v>
       </c>
@@ -1753,7 +1763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2007</v>
       </c>
@@ -1767,7 +1777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2018</v>
       </c>
@@ -1781,7 +1791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2014</v>
       </c>
@@ -1795,7 +1805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>2014</v>
       </c>
@@ -1809,7 +1819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>2016</v>
       </c>
@@ -1823,7 +1833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>2017</v>
       </c>
@@ -1837,7 +1847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>2015</v>
       </c>
@@ -1851,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>2012</v>
       </c>
@@ -1865,7 +1875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>2017</v>
       </c>
@@ -1879,7 +1889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>2017</v>
       </c>
@@ -1893,7 +1903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -1907,7 +1917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>2018</v>
       </c>
@@ -1921,7 +1931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>2020</v>
       </c>
@@ -1935,7 +1945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>2005</v>
       </c>
@@ -1949,7 +1959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>2018</v>
       </c>
@@ -1963,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>2007</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>2002</v>
       </c>
@@ -1991,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>2001</v>
       </c>
@@ -2005,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>2001</v>
       </c>
@@ -2019,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>2006</v>
       </c>
@@ -2033,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>2004</v>
       </c>
@@ -2047,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>2019</v>
       </c>
@@ -2061,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>2019</v>
       </c>
@@ -2075,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>2018</v>
       </c>
@@ -2089,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>2018</v>
       </c>
@@ -2103,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>2019</v>
       </c>
@@ -2117,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>2019</v>
       </c>
@@ -2131,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>2020</v>
       </c>
@@ -2156,13 +2166,13 @@
       <selection sqref="A1:D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.265625" customWidth="1"/>
+    <col min="3" max="3" width="29.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
@@ -2190,7 +2200,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -2204,7 +2214,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -2218,7 +2228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2008</v>
       </c>
@@ -2232,7 +2242,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2011</v>
       </c>
@@ -2246,7 +2256,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2004</v>
       </c>
@@ -2260,7 +2270,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -2274,7 +2284,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2012</v>
       </c>
@@ -2288,7 +2298,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
@@ -2302,7 +2312,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2002</v>
       </c>
@@ -2316,7 +2326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2005</v>
       </c>
@@ -2330,7 +2340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2016</v>
       </c>
@@ -2344,7 +2354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2019</v>
       </c>
@@ -2358,7 +2368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2015</v>
       </c>
@@ -2372,7 +2382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2016</v>
       </c>
@@ -2386,7 +2396,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2018</v>
       </c>
@@ -2400,7 +2410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2005</v>
       </c>
@@ -2414,7 +2424,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2010</v>
       </c>
@@ -2428,7 +2438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2013</v>
       </c>
@@ -2442,7 +2452,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -2456,7 +2466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2014</v>
       </c>
@@ -2470,7 +2480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2014</v>
       </c>
@@ -2484,7 +2494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2014</v>
       </c>
@@ -2498,7 +2508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2014</v>
       </c>
@@ -2512,7 +2522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2013</v>
       </c>
@@ -2526,7 +2536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -2540,7 +2550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2006</v>
       </c>
@@ -2554,7 +2564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2013</v>
       </c>
@@ -2568,7 +2578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2018</v>
       </c>
@@ -2582,7 +2592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2001</v>
       </c>
@@ -2596,7 +2606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2014</v>
       </c>
@@ -2610,7 +2620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -2624,7 +2634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2016</v>
       </c>
@@ -2638,7 +2648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2016</v>
       </c>
@@ -2652,7 +2662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2009</v>
       </c>
@@ -2666,7 +2676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2016</v>
       </c>
@@ -2680,7 +2690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2018</v>
       </c>
@@ -2694,7 +2704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
@@ -2708,7 +2718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2017</v>
       </c>
@@ -2722,7 +2732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2008</v>
       </c>
@@ -2736,7 +2746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2015</v>
       </c>
@@ -2750,7 +2760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2014</v>
       </c>
@@ -2764,7 +2774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2017</v>
       </c>
@@ -2778,7 +2788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2008</v>
       </c>
@@ -2792,7 +2802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2013</v>
       </c>
@@ -2806,7 +2816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>2014</v>
       </c>
@@ -2820,7 +2830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>2017</v>
       </c>
@@ -2834,7 +2844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>2007</v>
       </c>
@@ -2848,7 +2858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>2007</v>
       </c>
@@ -2862,7 +2872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>2016</v>
       </c>
@@ -2876,7 +2886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>2018</v>
       </c>
@@ -2890,7 +2900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>2018</v>
       </c>
@@ -2904,7 +2914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>2017</v>
       </c>
@@ -2918,7 +2928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>2020</v>
       </c>
@@ -2932,7 +2942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>2018</v>
       </c>
@@ -2946,7 +2956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>2020</v>
       </c>
@@ -2960,7 +2970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>2015</v>
       </c>
@@ -2974,7 +2984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>2012</v>
       </c>
@@ -2988,7 +2998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>2018</v>
       </c>
@@ -3002,7 +3012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>2020</v>
       </c>
@@ -3016,7 +3026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>2005</v>
       </c>
@@ -3030,7 +3040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>2019</v>
       </c>
@@ -3044,7 +3054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>2019</v>
       </c>
@@ -3058,7 +3068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>2019</v>
       </c>
@@ -3072,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>2019</v>
       </c>
@@ -3099,13 +3109,13 @@
       <selection sqref="A1:D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3119,7 +3129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -3133,7 +3143,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -3147,7 +3157,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -3161,7 +3171,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -3175,7 +3185,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -3189,7 +3199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -3203,7 +3213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -3217,7 +3227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -3231,7 +3241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -3245,7 +3255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -3259,7 +3269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -3273,7 +3283,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -3287,7 +3297,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2016</v>
       </c>
@@ -3301,7 +3311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -3315,7 +3325,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2005</v>
       </c>
@@ -3329,7 +3339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -3343,7 +3353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -3357,7 +3367,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2013</v>
       </c>
@@ -3371,7 +3381,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2005</v>
       </c>
@@ -3385,7 +3395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2007</v>
       </c>
@@ -3399,7 +3409,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -3413,7 +3423,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2014</v>
       </c>
@@ -3427,7 +3437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2014</v>
       </c>
@@ -3441,7 +3451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2014</v>
       </c>
@@ -3455,7 +3465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -3469,7 +3479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -3483,7 +3493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -3497,7 +3507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2013</v>
       </c>
@@ -3511,7 +3521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2014</v>
       </c>
@@ -3525,7 +3535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -3539,7 +3549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2016</v>
       </c>
@@ -3553,7 +3563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -3567,7 +3577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2006</v>
       </c>
@@ -3581,7 +3591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2013</v>
       </c>
@@ -3595,7 +3605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2016</v>
       </c>
@@ -3609,7 +3619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2001</v>
       </c>
@@ -3623,7 +3633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2009</v>
       </c>
@@ -3637,7 +3647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -3651,7 +3661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -3665,7 +3675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2017</v>
       </c>
@@ -3679,7 +3689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -3693,7 +3703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2017</v>
       </c>
@@ -3707,7 +3717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2015</v>
       </c>
@@ -3721,7 +3731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -3735,7 +3745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2008</v>
       </c>
@@ -3749,7 +3759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2014</v>
       </c>
@@ -3763,7 +3773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2016</v>
       </c>
@@ -3777,7 +3787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2008</v>
       </c>
@@ -3791,7 +3801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2014</v>
       </c>
@@ -3805,7 +3815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -3819,7 +3829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2013</v>
       </c>
@@ -3833,7 +3843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -3847,7 +3857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2007</v>
       </c>
@@ -3861,7 +3871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2007</v>
       </c>
@@ -3875,7 +3885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2017</v>
       </c>
@@ -3889,7 +3899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -3903,7 +3913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -3917,7 +3927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3931,7 +3941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -3945,7 +3955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -3959,7 +3969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2020</v>
       </c>
@@ -3973,7 +3983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3987,7 +3997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>2015</v>
       </c>
@@ -4001,7 +4011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>2012</v>
       </c>
@@ -4015,7 +4025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2019</v>
       </c>
@@ -4029,7 +4039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2005</v>
       </c>
@@ -4043,7 +4053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -4057,7 +4067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>2021</v>
       </c>
@@ -4071,7 +4081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>2019</v>
       </c>
@@ -4085,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>2019</v>
       </c>
@@ -4112,13 +4122,13 @@
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4132,7 +4142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
@@ -4146,7 +4156,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -4160,7 +4170,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -4174,7 +4184,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2008</v>
       </c>
@@ -4188,7 +4198,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2010</v>
       </c>
@@ -4202,7 +4212,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2018</v>
       </c>
@@ -4216,7 +4226,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -4230,7 +4240,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
@@ -4244,7 +4254,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2012</v>
       </c>
@@ -4258,7 +4268,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2004</v>
       </c>
@@ -4272,7 +4282,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2015</v>
       </c>
@@ -4286,7 +4296,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2013</v>
       </c>
@@ -4300,7 +4310,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2016</v>
       </c>
@@ -4314,7 +4324,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2016</v>
       </c>
@@ -4328,7 +4338,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2002</v>
       </c>
@@ -4342,7 +4352,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -4356,7 +4366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2005</v>
       </c>
@@ -4370,7 +4380,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2010</v>
       </c>
@@ -4384,7 +4394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2005</v>
       </c>
@@ -4398,7 +4408,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2014</v>
       </c>
@@ -4412,7 +4422,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2007</v>
       </c>
@@ -4426,7 +4436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2018</v>
       </c>
@@ -4440,7 +4450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2016</v>
       </c>
@@ -4454,7 +4464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2014</v>
       </c>
@@ -4468,7 +4478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -4482,7 +4492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -4496,7 +4506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2015</v>
       </c>
@@ -4510,7 +4520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -4524,7 +4534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2020</v>
       </c>
@@ -4538,7 +4548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -4552,7 +4562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -4566,7 +4576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2013</v>
       </c>
@@ -4580,7 +4590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2018</v>
       </c>
@@ -4594,7 +4604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2016</v>
       </c>
@@ -4608,7 +4618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2020</v>
       </c>
@@ -4622,7 +4632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
@@ -4636,7 +4646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2017</v>
       </c>
@@ -4650,7 +4660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2020</v>
       </c>
@@ -4664,7 +4674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2006</v>
       </c>
@@ -4678,7 +4688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2015</v>
       </c>
@@ -4692,7 +4702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2017</v>
       </c>
@@ -4706,7 +4716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2001</v>
       </c>
@@ -4720,7 +4730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2009</v>
       </c>
@@ -4734,7 +4744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2017</v>
       </c>
@@ -4748,7 +4758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2021</v>
       </c>
@@ -4762,7 +4772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>2018</v>
       </c>
@@ -4776,7 +4786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>2015</v>
       </c>
@@ -4790,7 +4800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>2016</v>
       </c>
@@ -4804,7 +4814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>2014</v>
       </c>
@@ -4818,7 +4828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>2008</v>
       </c>
@@ -4832,7 +4842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>2018</v>
       </c>
@@ -4846,7 +4856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>2019</v>
       </c>
@@ -4860,7 +4870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -4874,7 +4884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>2008</v>
       </c>
@@ -4888,7 +4898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>2014</v>
       </c>
@@ -4902,7 +4912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>2013</v>
       </c>
@@ -4916,7 +4926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>2020</v>
       </c>
@@ -4930,7 +4940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>2020</v>
       </c>
@@ -4944,7 +4954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>2007</v>
       </c>
@@ -4958,7 +4968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>2007</v>
       </c>
@@ -4972,7 +4982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>2017</v>
       </c>
@@ -4986,7 +4996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>2020</v>
       </c>
@@ -5000,7 +5010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>2021</v>
       </c>
@@ -5014,7 +5024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>2019</v>
       </c>
@@ -5028,7 +5038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>2018</v>
       </c>
@@ -5042,7 +5052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>2021</v>
       </c>
@@ -5056,7 +5066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>2015</v>
       </c>
@@ -5070,7 +5080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>2012</v>
       </c>
@@ -5084,7 +5094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>2005</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>2020</v>
       </c>
@@ -5112,7 +5122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>2019</v>
       </c>
@@ -5126,7 +5136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>2021</v>
       </c>
@@ -5140,7 +5150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>2021</v>
       </c>
@@ -5154,7 +5164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>2021</v>
       </c>
@@ -5168,7 +5178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>2019</v>
       </c>
@@ -5195,17 +5205,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353BB113-D997-4658-9AA9-1D2D22C7AF6B}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="A71" sqref="A71:D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5219,7 +5229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
@@ -5233,7 +5243,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -5247,7 +5257,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -5261,7 +5271,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2014</v>
       </c>
@@ -5275,7 +5285,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2010</v>
       </c>
@@ -5289,7 +5299,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2018</v>
       </c>
@@ -5303,7 +5313,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -5317,7 +5327,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
@@ -5331,7 +5341,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2012</v>
       </c>
@@ -5345,7 +5355,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2016</v>
       </c>
@@ -5359,7 +5369,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2015</v>
       </c>
@@ -5373,7 +5383,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2004</v>
       </c>
@@ -5387,7 +5397,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2013</v>
       </c>
@@ -5401,7 +5411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2016</v>
       </c>
@@ -5415,7 +5425,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2013</v>
       </c>
@@ -5429,7 +5439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2010</v>
       </c>
@@ -5443,7 +5453,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2005</v>
       </c>
@@ -5457,7 +5467,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
@@ -5471,7 +5481,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2005</v>
       </c>
@@ -5485,7 +5495,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2020</v>
       </c>
@@ -5499,7 +5509,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2020</v>
       </c>
@@ -5513,7 +5523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2014</v>
       </c>
@@ -5527,7 +5537,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2018</v>
       </c>
@@ -5541,7 +5551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -5555,7 +5565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2021</v>
       </c>
@@ -5569,7 +5579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -5583,7 +5593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -5597,7 +5607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2020</v>
       </c>
@@ -5611,7 +5621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -5625,7 +5635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2007</v>
       </c>
@@ -5639,7 +5649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2014</v>
       </c>
@@ -5653,7 +5663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -5667,7 +5677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2014</v>
       </c>
@@ -5681,7 +5691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2018</v>
       </c>
@@ -5695,7 +5705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2016</v>
       </c>
@@ -5709,7 +5719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
@@ -5723,7 +5733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2017</v>
       </c>
@@ -5737,7 +5747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2013</v>
       </c>
@@ -5751,7 +5761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2016</v>
       </c>
@@ -5765,7 +5775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2017</v>
       </c>
@@ -5779,7 +5789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2006</v>
       </c>
@@ -5793,7 +5803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2015</v>
       </c>
@@ -5807,7 +5817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2017</v>
       </c>
@@ -5821,7 +5831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2001</v>
       </c>
@@ -5835,7 +5845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2009</v>
       </c>
@@ -5849,7 +5859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>2018</v>
       </c>
@@ -5863,7 +5873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>2015</v>
       </c>
@@ -5877,7 +5887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>2016</v>
       </c>
@@ -5891,7 +5901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>2018</v>
       </c>
@@ -5905,7 +5915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>2019</v>
       </c>
@@ -5919,7 +5929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>2022</v>
       </c>
@@ -5933,7 +5943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>2014</v>
       </c>
@@ -5947,7 +5957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -5961,7 +5971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>2021</v>
       </c>
@@ -5975,7 +5985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>2008</v>
       </c>
@@ -5989,7 +5999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>2020</v>
       </c>
@@ -6003,7 +6013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>2020</v>
       </c>
@@ -6017,7 +6027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>2008</v>
       </c>
@@ -6031,7 +6041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>2013</v>
       </c>
@@ -6045,7 +6055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>2014</v>
       </c>
@@ -6059,7 +6069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>2023</v>
       </c>
@@ -6073,7 +6083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>2017</v>
       </c>
@@ -6087,7 +6097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>2019</v>
       </c>
@@ -6101,7 +6111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>2021</v>
       </c>
@@ -6115,7 +6125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>2023</v>
       </c>
@@ -6129,7 +6139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>2007</v>
       </c>
@@ -6143,7 +6153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>2007</v>
       </c>
@@ -6157,7 +6167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>2020</v>
       </c>
@@ -6171,7 +6181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>2018</v>
       </c>
@@ -6185,7 +6195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>2023</v>
       </c>
@@ -6199,7 +6209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>2015</v>
       </c>
@@ -6213,7 +6223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>2022</v>
       </c>
@@ -6227,7 +6237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>2021</v>
       </c>
@@ -6241,7 +6251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>2021</v>
       </c>
@@ -6255,7 +6265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>2023</v>
       </c>
@@ -6269,7 +6279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>2012</v>
       </c>
@@ -6283,7 +6293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>2021</v>
       </c>
@@ -6297,7 +6307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>2023</v>
       </c>
@@ -6311,7 +6321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>2005</v>
       </c>
@@ -6325,7 +6335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>2020</v>
       </c>
@@ -6339,7 +6349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>2019</v>
       </c>
@@ -6353,7 +6363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>2019</v>
       </c>
@@ -6367,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>2023</v>
       </c>
@@ -6381,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>2022</v>
       </c>
@@ -6395,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>2022</v>
       </c>
@@ -6412,6 +6422,1464 @@
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
     <sortCondition descending="1" ref="D2:D86"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF839A25-EB0D-43D1-8123-15AA99204A86}">
+  <dimension ref="A1:D152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection sqref="A1:D90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C152" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D89">
+    <sortCondition descending="1" ref="D2:D89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6426,13 +7894,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6446,7 +7914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -6460,7 +7928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2002</v>
       </c>
@@ -6474,7 +7942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2007</v>
       </c>
@@ -6488,7 +7956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2010</v>
       </c>
@@ -6502,7 +7970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -6516,7 +7984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2008</v>
       </c>
@@ -6530,7 +7998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2005</v>
       </c>
@@ -6544,7 +8012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2010</v>
       </c>
@@ -6558,7 +8026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -6572,7 +8040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2006</v>
       </c>
@@ -6586,7 +8054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2009</v>
       </c>
@@ -6600,7 +8068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -6614,7 +8082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -6628,7 +8096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2001</v>
       </c>
@@ -6642,7 +8110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2007</v>
       </c>
@@ -6656,7 +8124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2008</v>
       </c>
@@ -6670,7 +8138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -6684,7 +8152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
@@ -6698,7 +8166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2005</v>
       </c>
@@ -6712,7 +8180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2013</v>
       </c>
@@ -6726,7 +8194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2013</v>
       </c>
@@ -6740,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2007</v>
       </c>
@@ -6754,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2002</v>
       </c>
@@ -6768,7 +8236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2001</v>
       </c>
@@ -6782,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2001</v>
       </c>
@@ -6796,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -6810,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2013</v>
       </c>
@@ -6824,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2013</v>
       </c>
@@ -6838,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -6865,13 +8333,13 @@
       <selection sqref="A1:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.1328125" customWidth="1"/>
+    <col min="3" max="3" width="26.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6885,7 +8353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -6899,7 +8367,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -6913,7 +8381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -6927,7 +8395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -6941,7 +8409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2007</v>
       </c>
@@ -6955,7 +8423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2008</v>
       </c>
@@ -6969,7 +8437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2005</v>
       </c>
@@ -6983,7 +8451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2011</v>
       </c>
@@ -6997,7 +8465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2010</v>
       </c>
@@ -7011,7 +8479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2006</v>
       </c>
@@ -7025,7 +8493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -7039,7 +8507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2013</v>
       </c>
@@ -7053,7 +8521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2009</v>
       </c>
@@ -7067,7 +8535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2008</v>
       </c>
@@ -7081,7 +8549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2001</v>
       </c>
@@ -7095,7 +8563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2014</v>
       </c>
@@ -7109,7 +8577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -7123,7 +8591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2014</v>
       </c>
@@ -7137,7 +8605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2007</v>
       </c>
@@ -7151,7 +8619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2013</v>
       </c>
@@ -7165,7 +8633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2013</v>
       </c>
@@ -7179,7 +8647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2008</v>
       </c>
@@ -7193,7 +8661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -7207,7 +8675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -7221,7 +8689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2005</v>
       </c>
@@ -7235,7 +8703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -7249,7 +8717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -7263,7 +8731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2007</v>
       </c>
@@ -7277,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2002</v>
       </c>
@@ -7291,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2001</v>
       </c>
@@ -7305,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2001</v>
       </c>
@@ -7319,7 +8787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2013</v>
       </c>
@@ -7333,7 +8801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2014</v>
       </c>
@@ -7347,7 +8815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2006</v>
       </c>
@@ -7361,7 +8829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -7375,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2014</v>
       </c>
@@ -7389,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
@@ -7403,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -7417,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -7444,13 +8912,13 @@
       <selection sqref="A1:D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.1328125" customWidth="1"/>
+    <col min="3" max="3" width="35.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7464,7 +8932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -7478,7 +8946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -7492,7 +8960,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -7506,7 +8974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -7520,7 +8988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -7534,7 +9002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -7548,7 +9016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
@@ -7562,7 +9030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -7576,7 +9044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -7590,7 +9058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2013</v>
       </c>
@@ -7604,7 +9072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -7618,7 +9086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2014</v>
       </c>
@@ -7632,7 +9100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2006</v>
       </c>
@@ -7646,7 +9114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2009</v>
       </c>
@@ -7660,7 +9128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -7674,7 +9142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2008</v>
       </c>
@@ -7688,7 +9156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2001</v>
       </c>
@@ -7702,7 +9170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2013</v>
       </c>
@@ -7716,7 +9184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2013</v>
       </c>
@@ -7730,7 +9198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -7744,7 +9212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2013</v>
       </c>
@@ -7758,7 +9226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2008</v>
       </c>
@@ -7772,7 +9240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2007</v>
       </c>
@@ -7786,7 +9254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -7800,7 +9268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -7814,7 +9282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -7828,7 +9296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2005</v>
       </c>
@@ -7842,7 +9310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2014</v>
       </c>
@@ -7856,7 +9324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -7870,7 +9338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2007</v>
       </c>
@@ -7884,7 +9352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2002</v>
       </c>
@@ -7898,7 +9366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2001</v>
       </c>
@@ -7912,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2001</v>
       </c>
@@ -7926,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2006</v>
       </c>
@@ -7940,7 +9408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -7954,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -7968,7 +9436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
@@ -7982,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -7996,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -8010,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2014</v>
       </c>
@@ -8024,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -8038,7 +9506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2015</v>
       </c>
@@ -8052,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2015</v>
       </c>
@@ -8066,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2015</v>
       </c>
@@ -8093,13 +9561,13 @@
       <selection sqref="A1:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.73046875" customWidth="1"/>
+    <col min="3" max="3" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8113,7 +9581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -8127,7 +9595,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -8141,7 +9609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -8155,7 +9623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -8169,7 +9637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -8183,7 +9651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -8197,7 +9665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
@@ -8211,7 +9679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -8225,7 +9693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -8239,7 +9707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2014</v>
       </c>
@@ -8253,7 +9721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -8267,7 +9735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2012</v>
       </c>
@@ -8281,7 +9749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2014</v>
       </c>
@@ -8295,7 +9763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2006</v>
       </c>
@@ -8309,7 +9777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2009</v>
       </c>
@@ -8323,7 +9791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2008</v>
       </c>
@@ -8337,7 +9805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -8351,7 +9819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2001</v>
       </c>
@@ -8365,7 +9833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2013</v>
       </c>
@@ -8379,7 +9847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -8393,7 +9861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2014</v>
       </c>
@@ -8407,7 +9875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2013</v>
       </c>
@@ -8421,7 +9889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2014</v>
       </c>
@@ -8435,7 +9903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2007</v>
       </c>
@@ -8449,7 +9917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2008</v>
       </c>
@@ -8463,7 +9931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -8477,7 +9945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -8491,7 +9959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2014</v>
       </c>
@@ -8505,7 +9973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -8519,7 +9987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2005</v>
       </c>
@@ -8533,7 +10001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
@@ -8547,7 +10015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2007</v>
       </c>
@@ -8561,7 +10029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2002</v>
       </c>
@@ -8575,7 +10043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2001</v>
       </c>
@@ -8589,7 +10057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2001</v>
       </c>
@@ -8603,7 +10071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2006</v>
       </c>
@@ -8617,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2013</v>
       </c>
@@ -8631,7 +10099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -8645,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -8659,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2014</v>
       </c>
@@ -8673,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -8687,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2015</v>
       </c>
@@ -8701,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2015</v>
       </c>
@@ -8715,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2015</v>
       </c>
@@ -8729,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2015</v>
       </c>
@@ -8756,13 +10224,13 @@
       <selection sqref="A1:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" customWidth="1"/>
+    <col min="3" max="3" width="29.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8776,7 +10244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
@@ -8790,7 +10258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -8804,7 +10272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -8818,7 +10286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -8832,7 +10300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -8846,7 +10314,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
@@ -8860,7 +10328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -8874,7 +10342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -8888,7 +10356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
@@ -8902,7 +10370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2005</v>
       </c>
@@ -8916,7 +10384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -8930,7 +10398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2012</v>
       </c>
@@ -8944,7 +10412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2014</v>
       </c>
@@ -8958,7 +10426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2006</v>
       </c>
@@ -8972,7 +10440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -8986,7 +10454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2009</v>
       </c>
@@ -9000,7 +10468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -9014,7 +10482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2008</v>
       </c>
@@ -9028,7 +10496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2001</v>
       </c>
@@ -9042,7 +10510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2007</v>
       </c>
@@ -9056,7 +10524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2014</v>
       </c>
@@ -9070,7 +10538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2013</v>
       </c>
@@ -9084,7 +10552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2013</v>
       </c>
@@ -9098,7 +10566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -9112,7 +10580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -9126,7 +10594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -9140,7 +10608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2007</v>
       </c>
@@ -9154,7 +10622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2013</v>
       </c>
@@ -9168,7 +10636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2014</v>
       </c>
@@ -9182,7 +10650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2008</v>
       </c>
@@ -9196,7 +10664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2014</v>
       </c>
@@ -9210,7 +10678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2015</v>
       </c>
@@ -9224,7 +10692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2005</v>
       </c>
@@ -9238,7 +10706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2015</v>
       </c>
@@ -9252,7 +10720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2014</v>
       </c>
@@ -9266,7 +10734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -9280,7 +10748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2007</v>
       </c>
@@ -9294,7 +10762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2002</v>
       </c>
@@ -9308,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2001</v>
       </c>
@@ -9322,7 +10790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2001</v>
       </c>
@@ -9336,7 +10804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2006</v>
       </c>
@@ -9350,7 +10818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2012</v>
       </c>
@@ -9364,7 +10832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2014</v>
       </c>
@@ -9378,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2015</v>
       </c>
@@ -9392,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2015</v>
       </c>
@@ -9419,13 +10887,13 @@
       <selection sqref="A1:D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="29.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9439,7 +10907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
@@ -9453,7 +10921,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2004</v>
       </c>
@@ -9467,7 +10935,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2008</v>
       </c>
@@ -9481,7 +10949,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -9495,7 +10963,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
@@ -9509,7 +10977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2002</v>
       </c>
@@ -9523,7 +10991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -9537,7 +11005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
@@ -9551,7 +11019,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2007</v>
       </c>
@@ -9565,7 +11033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
@@ -9579,7 +11047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -9593,7 +11061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2010</v>
       </c>
@@ -9607,7 +11075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2005</v>
       </c>
@@ -9621,7 +11089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2012</v>
       </c>
@@ -9635,7 +11103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2006</v>
       </c>
@@ -9649,7 +11117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -9663,7 +11131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -9677,7 +11145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2009</v>
       </c>
@@ -9691,7 +11159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2001</v>
       </c>
@@ -9705,7 +11173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2014</v>
       </c>
@@ -9719,7 +11187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2008</v>
       </c>
@@ -9733,7 +11201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2013</v>
       </c>
@@ -9747,7 +11215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2013</v>
       </c>
@@ -9761,7 +11229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -9775,7 +11243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -9789,7 +11257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -9803,7 +11271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2007</v>
       </c>
@@ -9817,7 +11285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -9831,7 +11299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2014</v>
       </c>
@@ -9845,7 +11313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2008</v>
       </c>
@@ -9859,7 +11327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2007</v>
       </c>
@@ -9873,7 +11341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2013</v>
       </c>
@@ -9887,7 +11355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2015</v>
       </c>
@@ -9901,7 +11369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2016</v>
       </c>
@@ -9915,7 +11383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2014</v>
       </c>
@@ -9929,7 +11397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2016</v>
       </c>
@@ -9943,7 +11411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2015</v>
       </c>
@@ -9957,7 +11425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2005</v>
       </c>
@@ -9971,7 +11439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -9985,7 +11453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2007</v>
       </c>
@@ -9999,7 +11467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2002</v>
       </c>
@@ -10013,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2001</v>
       </c>
@@ -10027,7 +11495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2001</v>
       </c>
@@ -10041,7 +11509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2006</v>
       </c>
@@ -10055,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2012</v>
       </c>
@@ -10069,7 +11537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>2016</v>
       </c>
@@ -10083,7 +11551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>2015</v>
       </c>
@@ -10097,7 +11565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>2015</v>
       </c>
@@ -10111,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>2016</v>
       </c>
@@ -10125,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>2016</v>
       </c>
@@ -10139,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>2016</v>
       </c>
@@ -10166,13 +11634,13 @@
       <selection sqref="A1:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.73046875" customWidth="1"/>
+    <col min="3" max="3" width="30.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10186,7 +11654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
@@ -10200,7 +11668,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2004</v>
       </c>
@@ -10214,7 +11682,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -10228,7 +11696,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2008</v>
       </c>
@@ -10242,7 +11710,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
@@ -10256,7 +11724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2002</v>
       </c>
@@ -10270,7 +11738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -10284,7 +11752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -10298,7 +11766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -10312,7 +11780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2012</v>
       </c>
@@ -10326,7 +11794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -10340,7 +11808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2007</v>
       </c>
@@ -10354,7 +11822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -10368,7 +11836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2005</v>
       </c>
@@ -10382,7 +11850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2013</v>
       </c>
@@ -10396,7 +11864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2014</v>
       </c>
@@ -10410,7 +11878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -10424,7 +11892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2013</v>
       </c>
@@ -10438,7 +11906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -10452,7 +11920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -10466,7 +11934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2015</v>
       </c>
@@ -10480,7 +11948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2001</v>
       </c>
@@ -10494,7 +11962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2014</v>
       </c>
@@ -10508,7 +11976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2013</v>
       </c>
@@ -10522,7 +11990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -10536,7 +12004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -10550,7 +12018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2014</v>
       </c>
@@ -10564,7 +12032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2008</v>
       </c>
@@ -10578,7 +12046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2015</v>
       </c>
@@ -10592,7 +12060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2016</v>
       </c>
@@ -10606,7 +12074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -10620,7 +12088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2008</v>
       </c>
@@ -10634,7 +12102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2007</v>
       </c>
@@ -10648,7 +12116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2007</v>
       </c>
@@ -10662,7 +12130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -10676,7 +12144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -10690,7 +12158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2016</v>
       </c>
@@ -10704,7 +12172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
@@ -10718,7 +12186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -10732,7 +12200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2014</v>
       </c>
@@ -10746,7 +12214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2016</v>
       </c>
@@ -10760,7 +12228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2005</v>
       </c>
@@ -10774,7 +12242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2016</v>
       </c>
@@ -10788,7 +12256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2007</v>
       </c>
@@ -10802,7 +12270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2002</v>
       </c>
@@ -10816,7 +12284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>2001</v>
       </c>
@@ -10830,7 +12298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>2001</v>
       </c>
@@ -10844,7 +12312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>2006</v>
       </c>
@@ -10858,7 +12326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>2012</v>
       </c>
@@ -10872,7 +12340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>2016</v>
       </c>
@@ -10886,7 +12354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>2017</v>
       </c>
@@ -10900,7 +12368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>2015</v>
       </c>
@@ -10914,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>2017</v>
       </c>
@@ -10928,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>2017</v>
       </c>
@@ -10955,13 +12423,13 @@
       <selection sqref="A1:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10975,7 +12443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
@@ -10989,7 +12457,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -11003,7 +12471,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -11017,7 +12485,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2004</v>
       </c>
@@ -11031,7 +12499,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2008</v>
       </c>
@@ -11045,7 +12513,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
@@ -11059,7 +12527,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -11073,7 +12541,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2002</v>
       </c>
@@ -11087,7 +12555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2012</v>
       </c>
@@ -11101,7 +12569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2005</v>
       </c>
@@ -11115,7 +12583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -11129,7 +12597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2007</v>
       </c>
@@ -11143,7 +12611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2005</v>
       </c>
@@ -11157,7 +12625,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2010</v>
       </c>
@@ -11171,7 +12639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2015</v>
       </c>
@@ -11185,7 +12653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -11199,7 +12667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -11213,7 +12681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2016</v>
       </c>
@@ -11227,7 +12695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -11241,7 +12709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2013</v>
       </c>
@@ -11255,7 +12723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2006</v>
       </c>
@@ -11269,7 +12737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2014</v>
       </c>
@@ -11283,7 +12751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2014</v>
       </c>
@@ -11297,7 +12765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2014</v>
       </c>
@@ -11311,7 +12779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2009</v>
       </c>
@@ -11325,7 +12793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2013</v>
       </c>
@@ -11339,7 +12807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2001</v>
       </c>
@@ -11353,7 +12821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2014</v>
       </c>
@@ -11367,7 +12835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -11381,7 +12849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2015</v>
       </c>
@@ -11395,7 +12863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2008</v>
       </c>
@@ -11409,7 +12877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>2016</v>
       </c>
@@ -11423,7 +12891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>2016</v>
       </c>
@@ -11437,7 +12905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>2008</v>
       </c>
@@ -11451,7 +12919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>2007</v>
       </c>
@@ -11465,7 +12933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>2007</v>
       </c>
@@ -11479,7 +12947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>2015</v>
       </c>
@@ -11493,7 +12961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
@@ -11507,7 +12975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>2013</v>
       </c>
@@ -11521,7 +12989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>2016</v>
       </c>
@@ -11535,7 +13003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -11549,7 +13017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>2014</v>
       </c>
@@ -11563,7 +13031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2015</v>
       </c>
@@ -11577,7 +13045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>2012</v>
       </c>
@@ -11591,7 +13059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>2018</v>
       </c>
@@ -11605,7 +13073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>2005</v>
       </c>
@@ -11619,7 +13087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>2016</v>
       </c>
@@ -11633,7 +13101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>2017</v>
       </c>
@@ -11647,7 +13115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>2017</v>
       </c>
@@ -11661,7 +13129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>2017</v>
       </c>
@@ -11675,7 +13143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>2007</v>
       </c>
@@ -11689,7 +13157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>2002</v>
       </c>
@@ -11703,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>2001</v>
       </c>
@@ -11717,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>2001</v>
       </c>
@@ -11731,7 +13199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>2006</v>
       </c>
@@ -11745,7 +13213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>2017</v>
       </c>
@@ -11759,7 +13227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>2018</v>
       </c>
@@ -11773,7 +13241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>2018</v>
       </c>
@@ -11787,7 +13255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>2004</v>
       </c>
@@ -11801,7 +13269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>2019</v>
       </c>
@@ -11815,7 +13283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>2018</v>
       </c>
@@ -11829,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>2018</v>
       </c>
@@ -11843,7 +13311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>2018</v>
       </c>
@@ -11857,7 +13325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>2018</v>
       </c>
